--- a/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_de.xlsx
+++ b/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/masterOrderImportSchema_de.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krna/Projects/mes/mes-plugins/mes-plugins-master-orders/src/main/resources/masterOrders/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF110E-C367-9D41-AC85-187791E33070}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D59B44-0B0F-9F48-99F0-E0D7BD7BCEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="7880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="7880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Number</t>
   </si>
@@ -67,13 +67,19 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Delivery date of position</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -88,6 +94,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -783,9 +797,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -823,7 +837,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -929,7 +943,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1071,7 +1085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1079,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1106,7 @@
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,11 +1143,17 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
